--- a/data/vaccines.xlsx
+++ b/data/vaccines.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16388" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16388" windowHeight="8190" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="vaccines" sheetId="1" r:id="rId1"/>
     <sheet name="coverage" sheetId="2" r:id="rId2"/>
-    <sheet name="paper_data" sheetId="3" r:id="rId3"/>
+    <sheet name="paper_data_orig" sheetId="3" r:id="rId3"/>
+    <sheet name="paper_data_new" sheetId="4" r:id="rId4"/>
+    <sheet name="new_data_email" sheetId="5" r:id="rId5"/>
+    <sheet name="email_calculations" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="162">
   <si>
     <t>Grade</t>
   </si>
@@ -357,16 +360,167 @@
   </si>
   <si>
     <t>Supposed cov</t>
+  </si>
+  <si>
+    <t>Doses and vaccine coverage using SP state plan data (this does not cover the other age groups as health profession als since they are city coordinated program)</t>
+  </si>
+  <si>
+    <t>Idosos</t>
+  </si>
+  <si>
+    <t>População estimada</t>
+  </si>
+  <si>
+    <t>Nº D1</t>
+  </si>
+  <si>
+    <t>CoberturaD1</t>
+  </si>
+  <si>
+    <t>Nº D2</t>
+  </si>
+  <si>
+    <t>Cobertura D2  - população</t>
+  </si>
+  <si>
+    <t>78,69</t>
+  </si>
+  <si>
+    <t>76,97</t>
+  </si>
+  <si>
+    <t>112,31</t>
+  </si>
+  <si>
+    <t>114,94</t>
+  </si>
+  <si>
+    <t>103,86</t>
+  </si>
+  <si>
+    <t>89,19</t>
+  </si>
+  <si>
+    <t>109,55</t>
+  </si>
+  <si>
+    <t>104,61</t>
+  </si>
+  <si>
+    <t>92,01</t>
+  </si>
+  <si>
+    <t>89,39</t>
+  </si>
+  <si>
+    <t>97,84</t>
+  </si>
+  <si>
+    <t>95,07</t>
+  </si>
+  <si>
+    <t>96,60</t>
+  </si>
+  <si>
+    <t>92,79</t>
+  </si>
+  <si>
+    <t>103,12</t>
+  </si>
+  <si>
+    <t>89,78</t>
+  </si>
+  <si>
+    <t>99,78</t>
+  </si>
+  <si>
+    <t>12,67</t>
+  </si>
+  <si>
+    <t>94,52</t>
+  </si>
+  <si>
+    <t>12,52</t>
+  </si>
+  <si>
+    <t>97,45</t>
+  </si>
+  <si>
+    <t>53,04</t>
+  </si>
+  <si>
+    <t>97,46</t>
+  </si>
+  <si>
+    <t>9,17</t>
+  </si>
+  <si>
+    <t>94,91</t>
+  </si>
+  <si>
+    <t>6,91</t>
+  </si>
+  <si>
+    <t>GERAL</t>
+  </si>
+  <si>
+    <t>97,94</t>
+  </si>
+  <si>
+    <t>Dose1</t>
+  </si>
+  <si>
+    <t>Dose2</t>
+  </si>
+  <si>
+    <t>Data from email by Mauricio, 2021-07-08, "Re: Brazil ms"</t>
+  </si>
+  <si>
+    <t>New dose2</t>
+  </si>
+  <si>
+    <t>new_dose2</t>
+  </si>
+  <si>
+    <t>new_dose1</t>
+  </si>
+  <si>
+    <t>old_dose1</t>
+  </si>
+  <si>
+    <t>old_pop</t>
+  </si>
+  <si>
+    <t>new_pop</t>
+  </si>
+  <si>
+    <t>rollout_start</t>
+  </si>
+  <si>
+    <t>old_pop_new_cov</t>
+  </si>
+  <si>
+    <t>new_pop_new_cov</t>
+  </si>
+  <si>
+    <t>stated</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>old_pop_old_cov</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -384,6 +538,25 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -404,10 +577,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -421,9 +596,17 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -725,7 +908,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1364,10 +1547,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1375,7 +1558,7 @@
     <col min="2" max="2" width="15.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>81</v>
       </c>
@@ -1392,7 +1575,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <f>"90+"</f>
         <v>90+</v>
@@ -1407,11 +1590,11 @@
         <v>2510</v>
       </c>
       <c r="E2" s="8">
-        <f t="shared" ref="E2:E7" si="0">D2/C2/2</f>
+        <f>D2/C2/2</f>
         <v>0.71550741163055875</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -1425,11 +1608,11 @@
         <v>3031</v>
       </c>
       <c r="E3" s="8">
-        <f t="shared" si="0"/>
+        <f>D3/C3/2</f>
         <v>0.4336194563662375</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -1443,11 +1626,11 @@
         <v>5374</v>
       </c>
       <c r="E4" s="8">
-        <f t="shared" si="0"/>
+        <f>D4/C4/2</f>
         <v>0.31193406083120501</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>87</v>
       </c>
@@ -1461,11 +1644,11 @@
         <v>7902</v>
       </c>
       <c r="E5" s="8">
-        <f t="shared" si="0"/>
+        <f>D5/C5/2</f>
         <v>0.37888377445339472</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>88</v>
       </c>
@@ -1479,11 +1662,11 @@
         <v>13983</v>
       </c>
       <c r="E6" s="8">
-        <f t="shared" si="0"/>
+        <f>D6/C6/2</f>
         <v>0.44745600000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>89</v>
       </c>
@@ -1497,363 +1680,8 @@
         <v>22085</v>
       </c>
       <c r="E7" s="8">
-        <f t="shared" si="0"/>
+        <f>D7/C7/2</f>
         <v>0.54132555517427328</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" t="s">
-        <v>104</v>
-      </c>
-      <c r="F13" t="s">
-        <v>105</v>
-      </c>
-      <c r="G13" t="s">
-        <v>104</v>
-      </c>
-      <c r="H13" t="s">
-        <v>110</v>
-      </c>
-      <c r="I13" t="s">
-        <v>111</v>
-      </c>
-      <c r="J13" t="s">
-        <v>106</v>
-      </c>
-      <c r="K13" t="s">
-        <v>107</v>
-      </c>
-      <c r="L13" t="s">
-        <v>108</v>
-      </c>
-      <c r="M13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="C14" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="9">
-        <v>2510</v>
-      </c>
-      <c r="E14" s="9">
-        <v>1975</v>
-      </c>
-      <c r="F14" t="str">
-        <f>"90+"</f>
-        <v>90+</v>
-      </c>
-      <c r="G14">
-        <f>D14</f>
-        <v>2510</v>
-      </c>
-      <c r="H14">
-        <f>E14</f>
-        <v>1975</v>
-      </c>
-      <c r="I14">
-        <f>H14/G14</f>
-        <v>0.78685258964143423</v>
-      </c>
-      <c r="J14" s="6">
-        <v>1754</v>
-      </c>
-      <c r="K14">
-        <f>G14/J14</f>
-        <v>1.4310148232611175</v>
-      </c>
-      <c r="L14">
-        <v>0.71550741163055875</v>
-      </c>
-      <c r="M14">
-        <f>D2/G14</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="C15" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="9">
-        <v>3428</v>
-      </c>
-      <c r="E15" s="9">
-        <v>3850</v>
-      </c>
-      <c r="F15" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15">
-        <f>D15</f>
-        <v>3428</v>
-      </c>
-      <c r="H15">
-        <f>E15</f>
-        <v>3850</v>
-      </c>
-      <c r="I15">
-        <f t="shared" ref="I15:I19" si="1">H15/G15</f>
-        <v>1.1231038506417736</v>
-      </c>
-      <c r="J15" s="6">
-        <v>3495</v>
-      </c>
-      <c r="K15">
-        <f>G15/J15</f>
-        <v>0.98082975679542206</v>
-      </c>
-      <c r="L15">
-        <v>0.4336194563662375</v>
-      </c>
-      <c r="M15">
-        <f>D3/G15</f>
-        <v>0.88418903150525086</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="C16" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="9">
-        <v>6889</v>
-      </c>
-      <c r="E16" s="9">
-        <v>7155</v>
-      </c>
-      <c r="F16" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16">
-        <f>D16</f>
-        <v>6889</v>
-      </c>
-      <c r="H16">
-        <f>E16</f>
-        <v>7155</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="1"/>
-        <v>1.0386122804470896</v>
-      </c>
-      <c r="J16" s="6">
-        <v>8614</v>
-      </c>
-      <c r="K16">
-        <f>G16/J16</f>
-        <v>0.79974460181100537</v>
-      </c>
-      <c r="L16">
-        <v>0.31193406083120501</v>
-      </c>
-      <c r="M16">
-        <f>D4/G16</f>
-        <v>0.78008419219044856</v>
-      </c>
-    </row>
-    <row r="17" spans="3:13" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="C17" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="9">
-        <v>5422</v>
-      </c>
-      <c r="E17" s="9">
-        <v>5940</v>
-      </c>
-      <c r="F17" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17">
-        <f>D18+D17</f>
-        <v>10542</v>
-      </c>
-      <c r="H17">
-        <f>E18+E17</f>
-        <v>10651</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="1"/>
-        <v>1.0103395940049327</v>
-      </c>
-      <c r="J17" s="6">
-        <v>10428</v>
-      </c>
-      <c r="K17">
-        <f>G17/J17</f>
-        <v>1.0109321058688148</v>
-      </c>
-      <c r="L17">
-        <v>0.37888377445339472</v>
-      </c>
-      <c r="M17">
-        <f>D5/G17</f>
-        <v>0.74957313602731934</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="C18" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="9">
-        <v>5120</v>
-      </c>
-      <c r="E18" s="9">
-        <v>4711</v>
-      </c>
-      <c r="F18" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18">
-        <f>D20/2+D19</f>
-        <v>13983</v>
-      </c>
-      <c r="H18">
-        <f>E20/2+E19</f>
-        <v>13615</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="1"/>
-        <v>0.97368232854180081</v>
-      </c>
-      <c r="J18" s="6">
-        <v>15625</v>
-      </c>
-      <c r="K18">
-        <f>G18/J18</f>
-        <v>0.89491200000000004</v>
-      </c>
-      <c r="L18">
-        <v>0.44745600000000002</v>
-      </c>
-      <c r="M18">
-        <f>D6/G18</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="C19" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="9">
-        <v>8688</v>
-      </c>
-      <c r="E19" s="9">
-        <v>8500</v>
-      </c>
-      <c r="F19" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19">
-        <f>SUM(D21:D23)+D20/2</f>
-        <v>22085</v>
-      </c>
-      <c r="H19">
-        <f>SUM(E21:E23)+E20/2</f>
-        <v>21511</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="1"/>
-        <v>0.9740095087163233</v>
-      </c>
-      <c r="J19" s="6">
-        <v>20399</v>
-      </c>
-      <c r="K19">
-        <f>G19/J19</f>
-        <v>1.0826511103485466</v>
-      </c>
-      <c r="L19">
-        <v>0.54132555517427328</v>
-      </c>
-      <c r="M19">
-        <f>D7/G19</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="3:13" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="C20" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="9">
-        <v>10590</v>
-      </c>
-      <c r="E20" s="9">
-        <v>10230</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="C21" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="9">
-        <v>3650</v>
-      </c>
-      <c r="E21" s="9">
-        <v>3764</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="C22" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D22" s="9">
-        <v>4040</v>
-      </c>
-      <c r="E22" s="9">
-        <v>4031</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="C23" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="9">
-        <v>9100</v>
-      </c>
-      <c r="E23" s="9">
-        <v>8601</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="C24" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" s="9">
-        <v>4740</v>
-      </c>
-      <c r="E24" s="9">
-        <v>4619</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="C25" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25" s="9">
-        <v>4960</v>
-      </c>
-      <c r="E25" s="9">
-        <v>4834</v>
-      </c>
-    </row>
-    <row r="26" spans="3:13" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="C26" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="9">
-        <v>16295</v>
-      </c>
-      <c r="E26" s="9">
-        <v>15466</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="D27" s="9">
-        <v>85432</v>
       </c>
     </row>
   </sheetData>
@@ -1864,4 +1692,1150 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.19921875" customWidth="1"/>
+    <col min="8" max="8" width="17.1328125" customWidth="1"/>
+    <col min="9" max="9" width="18.46484375" customWidth="1"/>
+    <col min="10" max="10" width="18.265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="str">
+        <f>"90+"</f>
+        <v>90+</v>
+      </c>
+      <c r="B2" s="5">
+        <v>44235</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1754</v>
+      </c>
+      <c r="D2" s="12">
+        <v>2510</v>
+      </c>
+      <c r="E2" s="13">
+        <v>2510</v>
+      </c>
+      <c r="F2" s="13">
+        <v>1975</v>
+      </c>
+      <c r="G2">
+        <v>1932</v>
+      </c>
+      <c r="H2" s="8">
+        <f>(F2+G2)/D2/2</f>
+        <v>0.77828685258964148</v>
+      </c>
+      <c r="I2" s="16">
+        <f>(F2+G2)/C2/2</f>
+        <v>1.1137400228050172</v>
+      </c>
+      <c r="J2" s="16">
+        <f>E2/C2</f>
+        <v>1.4310148232611175</v>
+      </c>
+      <c r="K2" s="16">
+        <v>1</v>
+      </c>
+      <c r="L2" s="16">
+        <f>MIN(1,(H2+I2)/2)</f>
+        <v>0.94601343769732926</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="5">
+        <v>44239</v>
+      </c>
+      <c r="C3" s="11">
+        <v>3495</v>
+      </c>
+      <c r="D3" s="12">
+        <v>3428</v>
+      </c>
+      <c r="E3" s="13">
+        <v>3031</v>
+      </c>
+      <c r="F3" s="13">
+        <v>3850</v>
+      </c>
+      <c r="G3">
+        <v>3940</v>
+      </c>
+      <c r="H3" s="8">
+        <f t="shared" ref="H3:H7" si="0">(F3+G3)/D3/2</f>
+        <v>1.1362310385064178</v>
+      </c>
+      <c r="I3" s="16">
+        <f t="shared" ref="I3:I7" si="1">(F3+G3)/C3/2</f>
+        <v>1.1144492131616595</v>
+      </c>
+      <c r="J3" s="16">
+        <f t="shared" ref="J3:J7" si="2">E3/C3</f>
+        <v>0.867238912732475</v>
+      </c>
+      <c r="K3" s="16">
+        <v>0.88</v>
+      </c>
+      <c r="L3" s="16">
+        <f t="shared" ref="L3:L7" si="3">(H3+I3)/2</f>
+        <v>1.1253401258340388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="5">
+        <v>44256</v>
+      </c>
+      <c r="C4" s="11">
+        <v>8614</v>
+      </c>
+      <c r="D4" s="12">
+        <v>6889</v>
+      </c>
+      <c r="E4" s="13">
+        <v>5374</v>
+      </c>
+      <c r="F4" s="13">
+        <v>7155</v>
+      </c>
+      <c r="G4">
+        <v>6144</v>
+      </c>
+      <c r="H4" s="8">
+        <f t="shared" si="0"/>
+        <v>0.9652344317027145</v>
+      </c>
+      <c r="I4" s="16">
+        <f t="shared" si="1"/>
+        <v>0.77194102623635941</v>
+      </c>
+      <c r="J4" s="16">
+        <f t="shared" si="2"/>
+        <v>0.62386812166241001</v>
+      </c>
+      <c r="K4" s="16">
+        <v>0.78</v>
+      </c>
+      <c r="L4" s="16">
+        <f t="shared" si="3"/>
+        <v>0.86858772896953695</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="5">
+        <v>44258</v>
+      </c>
+      <c r="C5" s="11">
+        <v>10428</v>
+      </c>
+      <c r="D5" s="12">
+        <v>10542</v>
+      </c>
+      <c r="E5" s="13">
+        <v>7902</v>
+      </c>
+      <c r="F5" s="13">
+        <v>10651</v>
+      </c>
+      <c r="G5">
+        <v>5672</v>
+      </c>
+      <c r="H5" s="8">
+        <f t="shared" si="0"/>
+        <v>0.77418895845190661</v>
+      </c>
+      <c r="I5" s="16">
+        <f t="shared" si="1"/>
+        <v>0.78265247410817029</v>
+      </c>
+      <c r="J5" s="16">
+        <f t="shared" si="2"/>
+        <v>0.75776754890678943</v>
+      </c>
+      <c r="K5" s="16">
+        <f>(41+100)/2/100</f>
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="L5" s="16">
+        <f t="shared" si="3"/>
+        <v>0.7784207162800385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="5">
+        <v>44277</v>
+      </c>
+      <c r="C6" s="11">
+        <v>15625</v>
+      </c>
+      <c r="D6" s="12">
+        <v>13983</v>
+      </c>
+      <c r="E6" s="13">
+        <v>13983</v>
+      </c>
+      <c r="F6" s="13">
+        <v>13615</v>
+      </c>
+      <c r="G6">
+        <v>4577</v>
+      </c>
+      <c r="H6" s="8">
+        <f t="shared" si="0"/>
+        <v>0.65050418365157692</v>
+      </c>
+      <c r="I6" s="16">
+        <f t="shared" si="1"/>
+        <v>0.58214399999999999</v>
+      </c>
+      <c r="J6" s="16">
+        <f t="shared" si="2"/>
+        <v>0.89491200000000004</v>
+      </c>
+      <c r="K6" s="16">
+        <v>1</v>
+      </c>
+      <c r="L6" s="16">
+        <f t="shared" si="3"/>
+        <v>0.6163240918257884</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="5">
+        <v>44280</v>
+      </c>
+      <c r="C7" s="11">
+        <v>20399</v>
+      </c>
+      <c r="D7" s="12">
+        <v>22085</v>
+      </c>
+      <c r="E7" s="11">
+        <v>22085</v>
+      </c>
+      <c r="F7" s="11">
+        <v>21511</v>
+      </c>
+      <c r="G7">
+        <v>8260</v>
+      </c>
+      <c r="H7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.67400950871632326</v>
+      </c>
+      <c r="I7" s="16">
+        <f t="shared" si="1"/>
+        <v>0.72971714299720569</v>
+      </c>
+      <c r="J7" s="16">
+        <f t="shared" si="2"/>
+        <v>1.0826511103485466</v>
+      </c>
+      <c r="K7" s="16">
+        <v>1</v>
+      </c>
+      <c r="L7" s="16">
+        <f t="shared" si="3"/>
+        <v>0.70186332585676448</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.65" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A2" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A3" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A4" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2510</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1975</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1932</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A5" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="9">
+        <v>3428</v>
+      </c>
+      <c r="C5" s="9">
+        <v>3850</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="9">
+        <v>3940</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A6" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="9">
+        <v>6889</v>
+      </c>
+      <c r="C6" s="9">
+        <v>7155</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="9">
+        <v>6144</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A7" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="9">
+        <v>5422</v>
+      </c>
+      <c r="C7" s="9">
+        <v>5940</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="9">
+        <v>5672</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A8" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="9">
+        <v>5120</v>
+      </c>
+      <c r="C8" s="9">
+        <v>4711</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="9">
+        <v>4577</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A9" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="9">
+        <v>8688</v>
+      </c>
+      <c r="C9" s="9">
+        <v>8500</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="9">
+        <v>8260</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A10" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="9">
+        <v>10590</v>
+      </c>
+      <c r="C10" s="9">
+        <v>10230</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="9">
+        <v>9826</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A11" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="9">
+        <v>3650</v>
+      </c>
+      <c r="C11" s="9">
+        <v>3764</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="9">
+        <v>3277</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A12" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="9">
+        <v>4040</v>
+      </c>
+      <c r="C12" s="9">
+        <v>4031</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="9">
+        <v>512</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A13" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="9">
+        <v>9100</v>
+      </c>
+      <c r="C13" s="9">
+        <v>8601</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1139</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A14" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="9">
+        <v>4740</v>
+      </c>
+      <c r="C14" s="9">
+        <v>4619</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="9">
+        <v>2514</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A15" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="9">
+        <v>4960</v>
+      </c>
+      <c r="C15" s="9">
+        <v>4834</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="9">
+        <v>455</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A16" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="9">
+        <v>16295</v>
+      </c>
+      <c r="C16" s="9">
+        <v>15466</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1126</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A17" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="9">
+        <v>85432</v>
+      </c>
+      <c r="C17" s="9">
+        <v>83676</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="9">
+        <v>49374</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A1" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="15" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A2" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A3" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2510</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1975</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1932</v>
+      </c>
+      <c r="E3" t="str">
+        <f>"90+"</f>
+        <v>90+</v>
+      </c>
+      <c r="F3">
+        <f>B3</f>
+        <v>2510</v>
+      </c>
+      <c r="G3">
+        <f>C3</f>
+        <v>1975</v>
+      </c>
+      <c r="H3">
+        <f>D3</f>
+        <v>1932</v>
+      </c>
+      <c r="I3">
+        <f>G3/F3</f>
+        <v>0.78685258964143423</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1754</v>
+      </c>
+      <c r="K3">
+        <f>F3/J3</f>
+        <v>1.4310148232611175</v>
+      </c>
+      <c r="L3">
+        <v>0.71550741163055875</v>
+      </c>
+      <c r="M3">
+        <f>paper_data_new!F2/F3</f>
+        <v>0.78685258964143423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A4" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="9">
+        <v>3428</v>
+      </c>
+      <c r="C4" s="9">
+        <v>3850</v>
+      </c>
+      <c r="D4" s="9">
+        <v>3940</v>
+      </c>
+      <c r="E4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4">
+        <f>B4</f>
+        <v>3428</v>
+      </c>
+      <c r="G4">
+        <f>C4</f>
+        <v>3850</v>
+      </c>
+      <c r="H4">
+        <f>D4</f>
+        <v>3940</v>
+      </c>
+      <c r="I4">
+        <f>G4/F4</f>
+        <v>1.1231038506417736</v>
+      </c>
+      <c r="J4" s="6">
+        <v>3495</v>
+      </c>
+      <c r="K4">
+        <f>F4/J4</f>
+        <v>0.98082975679542206</v>
+      </c>
+      <c r="L4">
+        <v>0.4336194563662375</v>
+      </c>
+      <c r="M4">
+        <f>paper_data_new!F3/F4</f>
+        <v>1.1231038506417736</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A5" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="9">
+        <v>6889</v>
+      </c>
+      <c r="C5" s="9">
+        <v>7155</v>
+      </c>
+      <c r="D5" s="9">
+        <v>6144</v>
+      </c>
+      <c r="E5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5">
+        <f>B5</f>
+        <v>6889</v>
+      </c>
+      <c r="G5">
+        <f>C5</f>
+        <v>7155</v>
+      </c>
+      <c r="H5">
+        <f>D5</f>
+        <v>6144</v>
+      </c>
+      <c r="I5">
+        <f>G5/F5</f>
+        <v>1.0386122804470896</v>
+      </c>
+      <c r="J5" s="6">
+        <v>8614</v>
+      </c>
+      <c r="K5">
+        <f>F5/J5</f>
+        <v>0.79974460181100537</v>
+      </c>
+      <c r="L5">
+        <v>0.31193406083120501</v>
+      </c>
+      <c r="M5">
+        <f>paper_data_new!F4/F5</f>
+        <v>1.0386122804470896</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A6" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="9">
+        <v>5422</v>
+      </c>
+      <c r="C6" s="9">
+        <v>5940</v>
+      </c>
+      <c r="D6" s="9">
+        <v>5672</v>
+      </c>
+      <c r="E6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6">
+        <f>B7+B6</f>
+        <v>10542</v>
+      </c>
+      <c r="G6">
+        <f>C7+C6</f>
+        <v>10651</v>
+      </c>
+      <c r="H6">
+        <f>D6</f>
+        <v>5672</v>
+      </c>
+      <c r="I6">
+        <f>G6/F6</f>
+        <v>1.0103395940049327</v>
+      </c>
+      <c r="J6" s="6">
+        <v>10428</v>
+      </c>
+      <c r="K6">
+        <f>F6/J6</f>
+        <v>1.0109321058688148</v>
+      </c>
+      <c r="L6">
+        <v>0.37888377445339472</v>
+      </c>
+      <c r="M6">
+        <f>paper_data_new!F5/F6</f>
+        <v>1.0103395940049327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A7" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="9">
+        <v>5120</v>
+      </c>
+      <c r="C7" s="9">
+        <v>4711</v>
+      </c>
+      <c r="D7" s="9">
+        <v>4577</v>
+      </c>
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7">
+        <f>B9/2+B8</f>
+        <v>13983</v>
+      </c>
+      <c r="G7">
+        <f>C9/2+C8</f>
+        <v>13615</v>
+      </c>
+      <c r="H7">
+        <f>D7</f>
+        <v>4577</v>
+      </c>
+      <c r="I7">
+        <f>G7/F7</f>
+        <v>0.97368232854180081</v>
+      </c>
+      <c r="J7" s="6">
+        <v>15625</v>
+      </c>
+      <c r="K7">
+        <f>F7/J7</f>
+        <v>0.89491200000000004</v>
+      </c>
+      <c r="L7">
+        <v>0.44745600000000002</v>
+      </c>
+      <c r="M7">
+        <f>paper_data_new!F6/F7</f>
+        <v>0.97368232854180081</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A8" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="9">
+        <v>8688</v>
+      </c>
+      <c r="C8" s="9">
+        <v>8500</v>
+      </c>
+      <c r="D8" s="9">
+        <v>8260</v>
+      </c>
+      <c r="E8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8">
+        <f>SUM(B10:B12)+B9/2</f>
+        <v>22085</v>
+      </c>
+      <c r="G8">
+        <f>SUM(C10:C12)+C9/2</f>
+        <v>21511</v>
+      </c>
+      <c r="H8">
+        <f>D8</f>
+        <v>8260</v>
+      </c>
+      <c r="I8">
+        <f>G8/F8</f>
+        <v>0.9740095087163233</v>
+      </c>
+      <c r="J8" s="6">
+        <v>20399</v>
+      </c>
+      <c r="K8">
+        <f>F8/J8</f>
+        <v>1.0826511103485466</v>
+      </c>
+      <c r="L8">
+        <v>0.54132555517427328</v>
+      </c>
+      <c r="M8">
+        <f>paper_data_new!F7/F8</f>
+        <v>0.9740095087163233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A9" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="9">
+        <v>10590</v>
+      </c>
+      <c r="C9" s="9">
+        <v>10230</v>
+      </c>
+      <c r="D9" s="9">
+        <v>9826</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A10" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="9">
+        <v>3650</v>
+      </c>
+      <c r="C10" s="9">
+        <v>3764</v>
+      </c>
+      <c r="D10" s="9">
+        <v>3277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A11" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="9">
+        <v>4040</v>
+      </c>
+      <c r="C11" s="9">
+        <v>4031</v>
+      </c>
+      <c r="D11" s="9">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A12" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="9">
+        <v>9100</v>
+      </c>
+      <c r="C12" s="9">
+        <v>8601</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A13" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="9">
+        <v>4740</v>
+      </c>
+      <c r="C13" s="9">
+        <v>4619</v>
+      </c>
+      <c r="D13" s="9">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A14" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="9">
+        <v>4960</v>
+      </c>
+      <c r="C14" s="9">
+        <v>4834</v>
+      </c>
+      <c r="D14" s="9">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A15" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="9">
+        <v>16295</v>
+      </c>
+      <c r="C15" s="9">
+        <v>15466</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="B16" s="9">
+        <v>85432</v>
+      </c>
+      <c r="D16" s="9">
+        <v>49374</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/vaccines.xlsx
+++ b/data/vaccines.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="165">
   <si>
     <t>Grade</t>
   </si>
@@ -503,13 +503,22 @@
     <t>new_pop_new_cov</t>
   </si>
   <si>
-    <t>stated</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
     <t>old_pop_old_cov</t>
+  </si>
+  <si>
+    <t>cov_mean</t>
+  </si>
+  <si>
+    <t>cov_stated</t>
+  </si>
+  <si>
+    <t>both_dose_old</t>
+  </si>
+  <si>
+    <t>both_dose_new</t>
+  </si>
+  <si>
+    <t>both_dose_mean</t>
   </si>
 </sst>
 </file>
@@ -908,7 +917,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1696,310 +1705,413 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.19921875" customWidth="1"/>
-    <col min="8" max="8" width="17.1328125" customWidth="1"/>
-    <col min="9" max="9" width="18.46484375" customWidth="1"/>
-    <col min="10" max="10" width="18.265625" customWidth="1"/>
+    <col min="3" max="3" width="15.19921875" customWidth="1"/>
+    <col min="9" max="9" width="17.1328125" customWidth="1"/>
+    <col min="10" max="10" width="18.46484375" customWidth="1"/>
+    <col min="11" max="11" width="18.265625" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>159</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <f>"90+"</f>
         <v>90+</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2">
+        <v>90</v>
+      </c>
+      <c r="C2" s="5">
         <v>44235</v>
       </c>
-      <c r="C2" s="11">
+      <c r="D2" s="11">
         <v>1754</v>
       </c>
-      <c r="D2" s="12">
+      <c r="E2" s="12">
         <v>2510</v>
       </c>
-      <c r="E2" s="13">
+      <c r="F2" s="13">
         <v>2510</v>
       </c>
-      <c r="F2" s="13">
+      <c r="G2" s="13">
         <v>1975</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1932</v>
       </c>
-      <c r="H2" s="8">
-        <f>(F2+G2)/D2/2</f>
+      <c r="I2" s="8">
+        <f>(G2+H2)/E2/2</f>
         <v>0.77828685258964148</v>
       </c>
-      <c r="I2" s="16">
-        <f>(F2+G2)/C2/2</f>
+      <c r="J2" s="16">
+        <f>(G2+H2)/D2/2</f>
         <v>1.1137400228050172</v>
       </c>
-      <c r="J2" s="16">
-        <f>E2/C2</f>
+      <c r="K2" s="16">
+        <f>F2/D2</f>
         <v>1.4310148232611175</v>
       </c>
-      <c r="K2" s="16">
+      <c r="L2" s="16">
         <v>1</v>
       </c>
-      <c r="L2" s="16">
-        <f>MIN(1,(H2+I2)/2)</f>
+      <c r="M2" s="16">
+        <f t="shared" ref="M2:M7" si="0">(I2+J2)/2</f>
         <v>0.94601343769732926</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N2" s="16">
+        <f>H2/D2</f>
+        <v>1.1014823261117446</v>
+      </c>
+      <c r="O2" s="16">
+        <f>H2/E2</f>
+        <v>0.76972111553784861</v>
+      </c>
+      <c r="P2" s="16">
+        <f>(N2+O2)/2</f>
+        <v>0.93560172082479665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3">
+        <v>85</v>
+      </c>
+      <c r="C3" s="5">
         <v>44239</v>
       </c>
-      <c r="C3" s="11">
+      <c r="D3" s="11">
         <v>3495</v>
       </c>
-      <c r="D3" s="12">
+      <c r="E3" s="12">
         <v>3428</v>
       </c>
-      <c r="E3" s="13">
+      <c r="F3" s="13">
         <v>3031</v>
       </c>
-      <c r="F3" s="13">
+      <c r="G3" s="13">
         <v>3850</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>3940</v>
       </c>
-      <c r="H3" s="8">
-        <f t="shared" ref="H3:H7" si="0">(F3+G3)/D3/2</f>
+      <c r="I3" s="8">
+        <f t="shared" ref="I3:I7" si="1">(G3+H3)/E3/2</f>
         <v>1.1362310385064178</v>
       </c>
-      <c r="I3" s="16">
-        <f t="shared" ref="I3:I7" si="1">(F3+G3)/C3/2</f>
+      <c r="J3" s="16">
+        <f t="shared" ref="J3:J7" si="2">(G3+H3)/D3/2</f>
         <v>1.1144492131616595</v>
       </c>
-      <c r="J3" s="16">
-        <f t="shared" ref="J3:J7" si="2">E3/C3</f>
+      <c r="K3" s="16">
+        <f t="shared" ref="K3:K7" si="3">F3/D3</f>
         <v>0.867238912732475</v>
       </c>
-      <c r="K3" s="16">
+      <c r="L3" s="16">
         <v>0.88</v>
       </c>
-      <c r="L3" s="16">
-        <f t="shared" ref="L3:L7" si="3">(H3+I3)/2</f>
+      <c r="M3" s="16">
+        <f t="shared" si="0"/>
         <v>1.1253401258340388</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N3" s="16">
+        <f t="shared" ref="N3:N7" si="4">H3/D3</f>
+        <v>1.1273247496423462</v>
+      </c>
+      <c r="O3" s="16">
+        <f t="shared" ref="O3:O7" si="5">H3/E3</f>
+        <v>1.1493582263710618</v>
+      </c>
+      <c r="P3" s="16">
+        <f t="shared" ref="P3:P7" si="6">(N3+O3)/2</f>
+        <v>1.138341488006704</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4">
+        <v>80</v>
+      </c>
+      <c r="C4" s="5">
         <v>44256</v>
       </c>
-      <c r="C4" s="11">
+      <c r="D4" s="11">
         <v>8614</v>
       </c>
-      <c r="D4" s="12">
+      <c r="E4" s="12">
         <v>6889</v>
       </c>
-      <c r="E4" s="13">
+      <c r="F4" s="13">
         <v>5374</v>
       </c>
-      <c r="F4" s="13">
+      <c r="G4" s="13">
         <v>7155</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>6144</v>
       </c>
-      <c r="H4" s="8">
-        <f t="shared" si="0"/>
+      <c r="I4" s="8">
+        <f t="shared" si="1"/>
         <v>0.9652344317027145</v>
-      </c>
-      <c r="I4" s="16">
-        <f t="shared" si="1"/>
-        <v>0.77194102623635941</v>
       </c>
       <c r="J4" s="16">
         <f t="shared" si="2"/>
+        <v>0.77194102623635941</v>
+      </c>
+      <c r="K4" s="16">
+        <f t="shared" si="3"/>
         <v>0.62386812166241001</v>
       </c>
-      <c r="K4" s="16">
+      <c r="L4" s="16">
         <v>0.78</v>
       </c>
-      <c r="L4" s="16">
-        <f t="shared" si="3"/>
+      <c r="M4" s="16">
+        <f t="shared" si="0"/>
         <v>0.86858772896953695</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N4" s="16">
+        <f t="shared" si="4"/>
+        <v>0.71325748781054099</v>
+      </c>
+      <c r="O4" s="16">
+        <f t="shared" si="5"/>
+        <v>0.89185658295833936</v>
+      </c>
+      <c r="P4" s="16">
+        <f t="shared" si="6"/>
+        <v>0.80255703538444023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
+        <v>75</v>
+      </c>
+      <c r="C5" s="5">
         <v>44258</v>
       </c>
-      <c r="C5" s="11">
+      <c r="D5" s="11">
         <v>10428</v>
       </c>
-      <c r="D5" s="12">
+      <c r="E5" s="12">
         <v>10542</v>
       </c>
-      <c r="E5" s="13">
+      <c r="F5" s="13">
         <v>7902</v>
       </c>
-      <c r="F5" s="13">
+      <c r="G5" s="13">
         <v>10651</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>5672</v>
       </c>
-      <c r="H5" s="8">
-        <f t="shared" si="0"/>
+      <c r="I5" s="8">
+        <f t="shared" si="1"/>
         <v>0.77418895845190661</v>
-      </c>
-      <c r="I5" s="16">
-        <f t="shared" si="1"/>
-        <v>0.78265247410817029</v>
       </c>
       <c r="J5" s="16">
         <f t="shared" si="2"/>
+        <v>0.78265247410817029</v>
+      </c>
+      <c r="K5" s="16">
+        <f t="shared" si="3"/>
         <v>0.75776754890678943</v>
       </c>
-      <c r="K5" s="16">
+      <c r="L5" s="16">
         <f>(41+100)/2/100</f>
         <v>0.70499999999999996</v>
       </c>
-      <c r="L5" s="16">
-        <f t="shared" si="3"/>
+      <c r="M5" s="16">
+        <f t="shared" si="0"/>
         <v>0.7784207162800385</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N5" s="16">
+        <f t="shared" si="4"/>
+        <v>0.54392021480629071</v>
+      </c>
+      <c r="O5" s="16">
+        <f t="shared" si="5"/>
+        <v>0.53803832289888065</v>
+      </c>
+      <c r="P5" s="16">
+        <f t="shared" si="6"/>
+        <v>0.54097926885258563</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
+        <v>70</v>
+      </c>
+      <c r="C6" s="5">
         <v>44277</v>
       </c>
-      <c r="C6" s="11">
+      <c r="D6" s="11">
         <v>15625</v>
       </c>
-      <c r="D6" s="12">
+      <c r="E6" s="12">
         <v>13983</v>
       </c>
-      <c r="E6" s="13">
+      <c r="F6" s="13">
         <v>13983</v>
       </c>
-      <c r="F6" s="13">
+      <c r="G6" s="13">
         <v>13615</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>4577</v>
       </c>
-      <c r="H6" s="8">
-        <f t="shared" si="0"/>
+      <c r="I6" s="8">
+        <f t="shared" si="1"/>
         <v>0.65050418365157692</v>
-      </c>
-      <c r="I6" s="16">
-        <f t="shared" si="1"/>
-        <v>0.58214399999999999</v>
       </c>
       <c r="J6" s="16">
         <f t="shared" si="2"/>
+        <v>0.58214399999999999</v>
+      </c>
+      <c r="K6" s="16">
+        <f t="shared" si="3"/>
         <v>0.89491200000000004</v>
       </c>
-      <c r="K6" s="16">
+      <c r="L6" s="16">
         <v>1</v>
       </c>
-      <c r="L6" s="16">
-        <f t="shared" si="3"/>
+      <c r="M6" s="16">
+        <f t="shared" si="0"/>
         <v>0.6163240918257884</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N6" s="16">
+        <f t="shared" si="4"/>
+        <v>0.29292800000000002</v>
+      </c>
+      <c r="O6" s="16">
+        <f t="shared" si="5"/>
+        <v>0.32732603876135308</v>
+      </c>
+      <c r="P6" s="16">
+        <f t="shared" si="6"/>
+        <v>0.31012701938067655</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
+        <v>65</v>
+      </c>
+      <c r="C7" s="5">
         <v>44280</v>
       </c>
-      <c r="C7" s="11">
+      <c r="D7" s="11">
         <v>20399</v>
       </c>
-      <c r="D7" s="12">
+      <c r="E7" s="12">
         <v>22085</v>
       </c>
-      <c r="E7" s="11">
+      <c r="F7" s="11">
         <v>22085</v>
       </c>
-      <c r="F7" s="11">
+      <c r="G7" s="11">
         <v>21511</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>8260</v>
       </c>
-      <c r="H7" s="8">
-        <f t="shared" si="0"/>
+      <c r="I7" s="8">
+        <f t="shared" si="1"/>
         <v>0.67400950871632326</v>
-      </c>
-      <c r="I7" s="16">
-        <f t="shared" si="1"/>
-        <v>0.72971714299720569</v>
       </c>
       <c r="J7" s="16">
         <f t="shared" si="2"/>
+        <v>0.72971714299720569</v>
+      </c>
+      <c r="K7" s="16">
+        <f t="shared" si="3"/>
         <v>1.0826511103485466</v>
       </c>
-      <c r="K7" s="16">
+      <c r="L7" s="16">
         <v>1</v>
       </c>
-      <c r="L7" s="16">
-        <f t="shared" si="3"/>
+      <c r="M7" s="16">
+        <f t="shared" si="0"/>
         <v>0.70186332585676448</v>
+      </c>
+      <c r="N7" s="16">
+        <f t="shared" si="4"/>
+        <v>0.40492180989264182</v>
+      </c>
+      <c r="O7" s="16">
+        <f t="shared" si="5"/>
+        <v>0.37400950871632327</v>
+      </c>
+      <c r="P7" s="16">
+        <f t="shared" si="6"/>
+        <v>0.38946565930448251</v>
       </c>
     </row>
   </sheetData>
@@ -2490,7 +2602,7 @@
         <v>0.71550741163055875</v>
       </c>
       <c r="M3">
-        <f>paper_data_new!F2/F3</f>
+        <f>paper_data_new!G2/F3</f>
         <v>0.78685258964143423</v>
       </c>
     </row>
@@ -2537,7 +2649,7 @@
         <v>0.4336194563662375</v>
       </c>
       <c r="M4">
-        <f>paper_data_new!F3/F4</f>
+        <f>paper_data_new!G3/F4</f>
         <v>1.1231038506417736</v>
       </c>
     </row>
@@ -2584,7 +2696,7 @@
         <v>0.31193406083120501</v>
       </c>
       <c r="M5">
-        <f>paper_data_new!F4/F5</f>
+        <f>paper_data_new!G4/F5</f>
         <v>1.0386122804470896</v>
       </c>
     </row>
@@ -2631,7 +2743,7 @@
         <v>0.37888377445339472</v>
       </c>
       <c r="M6">
-        <f>paper_data_new!F5/F6</f>
+        <f>paper_data_new!G5/F6</f>
         <v>1.0103395940049327</v>
       </c>
     </row>
@@ -2678,7 +2790,7 @@
         <v>0.44745600000000002</v>
       </c>
       <c r="M7">
-        <f>paper_data_new!F6/F7</f>
+        <f>paper_data_new!G6/F7</f>
         <v>0.97368232854180081</v>
       </c>
     </row>
@@ -2725,7 +2837,7 @@
         <v>0.54132555517427328</v>
       </c>
       <c r="M8">
-        <f>paper_data_new!F7/F8</f>
+        <f>paper_data_new!G7/F8</f>
         <v>0.9740095087163233</v>
       </c>
     </row>
